--- a/media/BAJAJ-PL/MIS/MAR 22/BAJAJ-PL MIS.xlsx
+++ b/media/BAJAJ-PL/MIS/MAR 22/BAJAJ-PL MIS.xlsx
@@ -463,10 +463,10 @@
         <v>18749565.12</v>
       </c>
       <c r="C2" t="n">
-        <v>414854</v>
+        <v>493242</v>
       </c>
       <c r="D2" t="n">
-        <v>2.21</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="3">
@@ -477,10 +477,10 @@
         <v>15513891.85</v>
       </c>
       <c r="C3" t="n">
-        <v>121283</v>
+        <v>189073</v>
       </c>
       <c r="D3" t="n">
-        <v>0.78</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="4">
@@ -491,10 +491,10 @@
         <v>9530315.050000001</v>
       </c>
       <c r="C4" t="n">
-        <v>15741</v>
+        <v>32272</v>
       </c>
       <c r="D4" t="n">
-        <v>0.17</v>
+        <v>0.34</v>
       </c>
     </row>
   </sheetData>

--- a/media/BAJAJ-PL/MIS/MAR 22/BAJAJ-PL MIS.xlsx
+++ b/media/BAJAJ-PL/MIS/MAR 22/BAJAJ-PL MIS.xlsx
@@ -463,10 +463,10 @@
         <v>18749565.12</v>
       </c>
       <c r="C2" t="n">
-        <v>493242</v>
+        <v>9894</v>
       </c>
       <c r="D2" t="n">
-        <v>2.63</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
@@ -477,10 +477,10 @@
         <v>15513891.85</v>
       </c>
       <c r="C3" t="n">
-        <v>189073</v>
+        <v>21855</v>
       </c>
       <c r="D3" t="n">
-        <v>1.22</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="4">
@@ -491,10 +491,10 @@
         <v>9530315.050000001</v>
       </c>
       <c r="C4" t="n">
-        <v>32272</v>
+        <v>5823</v>
       </c>
       <c r="D4" t="n">
-        <v>0.34</v>
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
